--- a/biology/Zoologie/Charaxes_barnsi/Charaxes_barnsi.xlsx
+++ b/biology/Zoologie/Charaxes_barnsi/Charaxes_barnsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Charaxes barnsi est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des  Charaxinae et au genre Charaxes.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charaxes barnsi a été nommé par James John Joicey et George Talbot en 1927[1]
-Noms vernaculaires</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes barnsi a été nommé par James John Joicey et George Talbot en 1927
+</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes barnsi est un grand papillon présentant un fond marron recouvert par une très large bande bleu métallisé ponctuée de bleu clair.
 Le mâle est un peu moins grand que la femelle qui atteint 105 mm.
@@ -574,10 +590,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sa biologie est mal connue.
-Plantes hôtes</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie est mal connue.
+</t>
         </is>
       </c>
     </row>
@@ -605,14 +623,51 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est uniquement présent dans le golfe de Guinée. C’est une espèce rare et endémique de l'île de Principe dans le Golfe de Guinée.
-Biotope
-Il réside dans les forêts de haute altitude.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est uniquement présent dans le golfe de Guinée. C’est une espèce rare et endémique de l'île de Principe dans le Golfe de Guinée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_barnsi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_barnsi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les forêts de haute altitude.
 Sur les autres projets Wikimedia :
 Charaxes barnsi, sur Wikimedia CommonsCharaxes barnsi, sur Wikispecies
-Protection</t>
+</t>
         </is>
       </c>
     </row>
